--- a/horizon_calls.xlsx
+++ b/horizon_calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U107172\Desktop\Scripts\AplicacionsWeb\HEFundingSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FA0AF-0DC7-498E-B20A-1C29BB68C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBE08D-0E59-4109-AD22-FB90F9AF48CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15270" xr2:uid="{E77A4C11-5916-4FBB-AC0E-9918928F7C9A}"/>
   </bookViews>
@@ -2825,6 +2825,9 @@
     <t>Forensic science; biometrics; digital forensics; DNA biology; mental health; criminology; human trafficking; child protection</t>
   </si>
   <si>
+    <t>LS1 Molecules of Life: Biological Mechanisms, Structures and Functions; SH3 The Social World and Its Interactions</t>
+  </si>
+  <si>
     <t>This project seeks to improve the tools and training available to police and civil society for preventing disappearances and investigating cold cases of missing individuals. It aims to develop common European approaches that combine advanced forensics with social knowledge to better protect vulnerable groups.</t>
   </si>
   <si>
@@ -5423,18 +5426,6 @@
     <t>This action supports the organization of the 2030 Transport Research Arena conference to showcase technological advancements across all transport modes. It aims to facilitate knowledge exchange between industry, researchers, and policymakers while promoting excellence through transport research and innovation awards.,</t>
   </si>
   <si>
-    <t>LS6 Immunity, Infection and Immunotherapy; LS1 Molecules of Life: Biological Mechanisms: Biological Mechanisms: Biological Mechanisms</t>
-  </si>
-  <si>
-    <t>LS1 Molecules of Life: Biological Mechanisms: Biological Mechanisms; LS6 Immunity, Infection and Immunotherapy</t>
-  </si>
-  <si>
-    <t>LS1 Molecules of Life: Biological Mechanisms: Biological Mechanisms; LS9 Biotechnology and Biosystems Engineering</t>
-  </si>
-  <si>
-    <t>LS1 Molecules of Life: Biological Mechanisms: Biological Mechanisms: Biological Mechanisms, Structures and Functions; SH3 The Social World and Its Interactions</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -5451,6 +5442,15 @@
   </si>
   <si>
     <t xml:space="preserve">Food, Bioeconomy, Natural Resources, Agriculture and Environment </t>
+  </si>
+  <si>
+    <t>LS6 Immunity, Infection and Immunotherapy; LS1 Molecules of Life: Biological Mechanisms, Structures and Functions;</t>
+  </si>
+  <si>
+    <t>LS1 Molecules of Life: Biological Mechanisms, Structures and Functions; LS6 Immunity, Infection and Immunotherapy</t>
+  </si>
+  <si>
+    <t>LS1 Molecules of Life: Biological Mechanisms, Structures and Functions; LS9 Biotechnology and Biosystems Engineering</t>
   </si>
 </sst>
 </file>
@@ -6619,8 +6619,8 @@
   <dimension ref="A1:K410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C409" sqref="C409"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -7004,7 +7004,7 @@
         <v>113</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>114</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>68</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>69</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="16" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>72</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>70</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>34</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="19" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>80</v>
@@ -7228,7 +7228,7 @@
         <v>129</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>130</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>81</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="21" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>82</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>83</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="23" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>84</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>85</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>29</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>39</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>74</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>75</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="29" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>32</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="30" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>76</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>77</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="32" spans="1:10" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>78</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="33" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>41</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="34" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>87</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="35" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>43</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>45</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="37" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>48</v>
@@ -7804,7 +7804,7 @@
         <v>185</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>186</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="38" spans="1:10" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>79</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="39" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>669</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="41" spans="1:10" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>672</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="42" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>674</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>676</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="44" spans="1:10" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>678</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>680</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="46" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>682</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="47" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>684</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="48" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>686</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="49" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>688</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="50" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>690</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="51" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>692</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="52" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>694</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="53" spans="1:11" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>696</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="54" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>699</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="55" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>701</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="56" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>703</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="57" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>705</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="58" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>707</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="59" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>752</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="60" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>757</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="61" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>762</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="62" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>767</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="63" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>772</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="64" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>777</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="65" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>782</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="66" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>787</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="67" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>791</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="68" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>795</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="69" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>800</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="70" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>805</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="71" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>809</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="72" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>813</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="73" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>817</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="74" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>821</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="75" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>826</v>
@@ -9047,7 +9047,7 @@
     </row>
     <row r="76" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>830</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="77" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>835</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="78" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>840</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="79" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>845</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="80" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>849</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="81" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>853</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="82" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>857</v>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="83" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>862</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="84" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>866</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="85" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B85" s="26" t="s">
         <v>870</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="86" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>874</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="87" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>878</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="88" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>882</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="89" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>886</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="90" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>890</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="91" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>894</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="92" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>898</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="93" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B93" s="32" t="s">
         <v>902</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>907</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="95" spans="1:10" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>909</v>
@@ -9685,9 +9685,9 @@
         <v>46331</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>925</v>
@@ -9699,10 +9699,10 @@
         <v>927</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>1797</v>
+        <v>928</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>52</v>
@@ -9719,22 +9719,22 @@
     </row>
     <row r="97" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>838</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>13</v>
@@ -9751,22 +9751,22 @@
     </row>
     <row r="98" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>52</v>
@@ -9783,22 +9783,22 @@
     </row>
     <row r="99" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>13</v>
@@ -9815,22 +9815,22 @@
     </row>
     <row r="100" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>770</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>52</v>
@@ -9847,22 +9847,22 @@
     </row>
     <row r="101" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>52</v>
@@ -9879,22 +9879,22 @@
     </row>
     <row r="102" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>13</v>
@@ -9911,22 +9911,22 @@
     </row>
     <row r="103" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>52</v>
@@ -9943,22 +9943,22 @@
     </row>
     <row r="104" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>52</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="105" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B105" s="26" t="s">
         <v>911</v>
@@ -9984,13 +9984,13 @@
         <v>912</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G105" s="26" t="s">
         <v>52</v>
@@ -10008,22 +10008,22 @@
     </row>
     <row r="106" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E106" s="26" t="s">
         <v>770</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>52</v>
@@ -10041,22 +10041,22 @@
     </row>
     <row r="107" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E107" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>18</v>
@@ -10073,22 +10073,22 @@
     </row>
     <row r="108" spans="1:11" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>775</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G108" s="26" t="s">
         <v>13</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="109" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B109" s="26" t="s">
         <v>917</v>
@@ -10115,13 +10115,13 @@
         <v>918</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>13</v>
@@ -10138,22 +10138,22 @@
     </row>
     <row r="110" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G110" s="26" t="s">
         <v>13</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="111" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B111" s="26" t="s">
         <v>913</v>
@@ -10179,13 +10179,13 @@
         <v>914</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G111" s="26" t="s">
         <v>52</v>
@@ -10202,22 +10202,22 @@
     </row>
     <row r="112" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G112" s="26" t="s">
         <v>13</v>
@@ -10234,22 +10234,22 @@
     </row>
     <row r="113" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>526</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G113" s="26" t="s">
         <v>52</v>
@@ -10266,22 +10266,22 @@
     </row>
     <row r="114" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G114" s="26" t="s">
         <v>52</v>
@@ -10298,22 +10298,22 @@
     </row>
     <row r="115" spans="1:11" s="13" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G115" s="26" t="s">
         <v>52</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="116" spans="1:11" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B116" s="26" t="s">
         <v>915</v>
@@ -10340,13 +10340,13 @@
         <v>916</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E116" s="26" t="s">
         <v>838</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G116" s="26" t="s">
         <v>13</v>
@@ -10364,22 +10364,22 @@
     </row>
     <row r="117" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>247</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G117" s="26" t="s">
         <v>52</v>
@@ -10397,22 +10397,22 @@
     </row>
     <row r="118" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G118" s="26" t="s">
         <v>52</v>
@@ -10430,22 +10430,22 @@
     </row>
     <row r="119" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G119" s="26" t="s">
         <v>52</v>
@@ -10463,22 +10463,22 @@
     </row>
     <row r="120" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>218</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G120" s="26" t="s">
         <v>52</v>
@@ -10496,22 +10496,22 @@
     </row>
     <row r="121" spans="1:11" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G121" s="26" t="s">
         <v>52</v>
@@ -10529,22 +10529,22 @@
     </row>
     <row r="122" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>838</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="G122" s="26" t="s">
         <v>13</v>
@@ -10561,22 +10561,22 @@
     </row>
     <row r="123" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G123" s="26" t="s">
         <v>52</v>
@@ -10593,22 +10593,22 @@
     </row>
     <row r="124" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E124" s="26" t="s">
         <v>770</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>52</v>
@@ -10625,22 +10625,22 @@
     </row>
     <row r="125" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>770</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>13</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="126" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>919</v>
@@ -10666,13 +10666,13 @@
         <v>920</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G126" s="26" t="s">
         <v>63</v>
@@ -10690,22 +10690,22 @@
     </row>
     <row r="127" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>31</v>
@@ -10722,22 +10722,22 @@
     </row>
     <row r="128" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>52</v>
@@ -10754,22 +10754,22 @@
     </row>
     <row r="129" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>52</v>
@@ -10786,22 +10786,22 @@
     </row>
     <row r="130" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G130" s="26" t="s">
         <v>18</v>
@@ -10818,22 +10818,22 @@
     </row>
     <row r="131" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>920</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>63</v>
@@ -10850,22 +10850,22 @@
     </row>
     <row r="132" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>52</v>
@@ -10877,27 +10877,27 @@
         <v>46007</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>52</v>
@@ -10914,22 +10914,22 @@
     </row>
     <row r="134" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>52</v>
@@ -10946,22 +10946,22 @@
     </row>
     <row r="135" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>18</v>
@@ -10978,22 +10978,22 @@
     </row>
     <row r="136" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>52</v>
@@ -11010,22 +11010,22 @@
     </row>
     <row r="137" spans="1:10" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>418</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>52</v>
@@ -11042,22 +11042,22 @@
     </row>
     <row r="138" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>13</v>
@@ -11074,22 +11074,22 @@
     </row>
     <row r="139" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>13</v>
@@ -11106,22 +11106,22 @@
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>13</v>
@@ -11138,22 +11138,22 @@
     </row>
     <row r="141" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>13</v>
@@ -11170,22 +11170,22 @@
     </row>
     <row r="142" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>409</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>52</v>
@@ -11202,22 +11202,22 @@
     </row>
     <row r="143" spans="1:10" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>13</v>
@@ -11234,22 +11234,22 @@
     </row>
     <row r="144" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>13</v>
@@ -11261,27 +11261,27 @@
         <v>46287</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>482</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>18</v>
@@ -11298,22 +11298,22 @@
     </row>
     <row r="146" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>18</v>
@@ -11330,22 +11330,22 @@
     </row>
     <row r="147" spans="1:10" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>13</v>
@@ -11362,22 +11362,22 @@
     </row>
     <row r="148" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>13</v>
@@ -11394,22 +11394,22 @@
     </row>
     <row r="149" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>18</v>
@@ -11426,22 +11426,22 @@
     </row>
     <row r="150" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>1136</v>
-      </c>
       <c r="F150" s="8" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>18</v>
@@ -11458,22 +11458,22 @@
     </row>
     <row r="151" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>18</v>
@@ -11490,22 +11490,22 @@
     </row>
     <row r="152" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>18</v>
@@ -11522,22 +11522,22 @@
     </row>
     <row r="153" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>52</v>
@@ -11554,22 +11554,22 @@
     </row>
     <row r="154" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>52</v>
@@ -11586,22 +11586,22 @@
     </row>
     <row r="155" spans="1:10" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>203</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>13</v>
@@ -11618,22 +11618,22 @@
     </row>
     <row r="156" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>13</v>
@@ -11650,22 +11650,22 @@
     </row>
     <row r="157" spans="1:10" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>18</v>
@@ -11682,22 +11682,22 @@
     </row>
     <row r="158" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>52</v>
@@ -11714,22 +11714,22 @@
     </row>
     <row r="159" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>52</v>
@@ -11746,22 +11746,22 @@
     </row>
     <row r="160" spans="1:10" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>18</v>
@@ -11778,22 +11778,22 @@
     </row>
     <row r="161" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>13</v>
@@ -11810,22 +11810,22 @@
     </row>
     <row r="162" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="G162" s="26" t="s">
         <v>52</v>
@@ -11842,22 +11842,22 @@
     </row>
     <row r="163" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F163" s="26" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G163" s="26" t="s">
         <v>13</v>
@@ -11874,22 +11874,22 @@
     </row>
     <row r="164" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="G164" s="26" t="s">
         <v>18</v>
@@ -11906,22 +11906,22 @@
     </row>
     <row r="165" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G165" s="26" t="s">
         <v>13</v>
@@ -11938,22 +11938,22 @@
     </row>
     <row r="166" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G166" s="26" t="s">
         <v>52</v>
@@ -11970,22 +11970,22 @@
     </row>
     <row r="167" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G167" s="26" t="s">
         <v>52</v>
@@ -12003,22 +12003,22 @@
     </row>
     <row r="168" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G168" s="34" t="s">
         <v>13</v>
@@ -12035,22 +12035,22 @@
     </row>
     <row r="169" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G169" s="34" t="s">
         <v>13</v>
@@ -12067,22 +12067,22 @@
     </row>
     <row r="170" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G170" s="34" t="s">
         <v>13</v>
@@ -12099,22 +12099,22 @@
     </row>
     <row r="171" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E171" s="34" t="s">
         <v>615</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G171" s="34" t="s">
         <v>13</v>
@@ -12131,22 +12131,22 @@
     </row>
     <row r="172" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E172" s="34" t="s">
         <v>615</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G172" s="34" t="s">
         <v>13</v>
@@ -12163,22 +12163,22 @@
     </row>
     <row r="173" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G173" s="34" t="s">
         <v>13</v>
@@ -12195,22 +12195,22 @@
     </row>
     <row r="174" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G174" s="34" t="s">
         <v>52</v>
@@ -12227,22 +12227,22 @@
     </row>
     <row r="175" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G175" s="34" t="s">
         <v>13</v>
@@ -12259,22 +12259,22 @@
     </row>
     <row r="176" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G176" s="34" t="s">
         <v>52</v>
@@ -12291,22 +12291,22 @@
     </row>
     <row r="177" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E177" s="34" t="s">
         <v>615</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G177" s="34" t="s">
         <v>52</v>
@@ -12323,22 +12323,22 @@
     </row>
     <row r="178" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G178" s="34" t="s">
         <v>18</v>
@@ -12355,22 +12355,22 @@
     </row>
     <row r="179" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F179" s="34" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G179" s="34" t="s">
         <v>18</v>
@@ -12387,22 +12387,22 @@
     </row>
     <row r="180" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F180" s="34" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G180" s="34" t="s">
         <v>13</v>
@@ -12419,22 +12419,22 @@
     </row>
     <row r="181" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F181" s="34" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G181" s="34" t="s">
         <v>13</v>
@@ -12451,22 +12451,22 @@
     </row>
     <row r="182" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="G182" s="34" t="s">
         <v>18</v>
@@ -12483,22 +12483,22 @@
     </row>
     <row r="183" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C183" s="34" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D183" s="34" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F183" s="34" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G183" s="34" t="s">
         <v>18</v>
@@ -12515,22 +12515,22 @@
     </row>
     <row r="184" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C184" s="34" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D184" s="34" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E184" s="34" t="s">
         <v>833</v>
       </c>
       <c r="F184" s="34" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G184" s="34" t="s">
         <v>18</v>
@@ -12547,22 +12547,22 @@
     </row>
     <row r="185" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C185" s="34" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D185" s="34" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E185" s="34" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F185" s="34" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G185" s="34" t="s">
         <v>18</v>
@@ -12579,22 +12579,22 @@
     </row>
     <row r="186" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D186" s="34" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E186" s="34" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F186" s="34" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G186" s="34" t="s">
         <v>13</v>
@@ -12606,27 +12606,27 @@
         <v>46007</v>
       </c>
       <c r="J186" s="34" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D187" s="34" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F187" s="34" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G187" s="34" t="s">
         <v>13</v>
@@ -12638,27 +12638,27 @@
         <v>46287</v>
       </c>
       <c r="J187" s="34" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D188" s="34" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F188" s="34" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G188" s="34" t="s">
         <v>13</v>
@@ -12670,27 +12670,27 @@
         <v>46007</v>
       </c>
       <c r="J188" s="34" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F189" s="26" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G189" s="26" t="s">
         <v>52</v>
@@ -12707,22 +12707,22 @@
     </row>
     <row r="190" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F190" s="26" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G190" s="26" t="s">
         <v>52</v>
@@ -12739,22 +12739,22 @@
     </row>
     <row r="191" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F191" s="26" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G191" s="26" t="s">
         <v>13</v>
@@ -12771,22 +12771,22 @@
     </row>
     <row r="192" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G192" s="26" t="s">
         <v>13</v>
@@ -12803,22 +12803,22 @@
     </row>
     <row r="193" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G193" s="26" t="s">
         <v>52</v>
@@ -12835,22 +12835,22 @@
     </row>
     <row r="194" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G194" s="26" t="s">
         <v>13</v>
@@ -12867,22 +12867,22 @@
     </row>
     <row r="195" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F195" s="26" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G195" s="26" t="s">
         <v>52</v>
@@ -12899,22 +12899,22 @@
     </row>
     <row r="196" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G196" s="26" t="s">
         <v>13</v>
@@ -12931,22 +12931,22 @@
     </row>
     <row r="197" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G197" s="26" t="s">
         <v>13</v>
@@ -12963,22 +12963,22 @@
     </row>
     <row r="198" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F198" s="26" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G198" s="26" t="s">
         <v>13</v>
@@ -12995,22 +12995,22 @@
     </row>
     <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F199" s="26" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G199" s="26" t="s">
         <v>52</v>
@@ -13027,22 +13027,22 @@
     </row>
     <row r="200" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G200" s="26" t="s">
         <v>13</v>
@@ -13059,22 +13059,22 @@
     </row>
     <row r="201" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F201" s="26" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G201" s="26" t="s">
         <v>13</v>
@@ -13091,22 +13091,22 @@
     </row>
     <row r="202" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F202" s="26" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G202" s="26" t="s">
         <v>13</v>
@@ -13123,22 +13123,22 @@
     </row>
     <row r="203" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G203" s="26" t="s">
         <v>13</v>
@@ -13155,22 +13155,22 @@
     </row>
     <row r="204" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F204" s="26" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G204" s="26" t="s">
         <v>52</v>
@@ -13187,22 +13187,22 @@
     </row>
     <row r="205" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E205" s="26" t="s">
         <v>615</v>
       </c>
       <c r="F205" s="26" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G205" s="26" t="s">
         <v>13</v>
@@ -13219,22 +13219,22 @@
     </row>
     <row r="206" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F206" s="26" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G206" s="26" t="s">
         <v>13</v>
@@ -13251,22 +13251,22 @@
     </row>
     <row r="207" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>833</v>
       </c>
       <c r="F207" s="26" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G207" s="26" t="s">
         <v>18</v>
@@ -13283,22 +13283,22 @@
     </row>
     <row r="208" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E208" s="32" t="s">
         <v>833</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G208" s="32" t="s">
         <v>18</v>
@@ -13315,22 +13315,22 @@
     </row>
     <row r="209" spans="1:11" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>13</v>
@@ -13347,22 +13347,22 @@
     </row>
     <row r="210" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>218</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>13</v>
@@ -13379,22 +13379,22 @@
     </row>
     <row r="211" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>266</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>13</v>
@@ -13411,22 +13411,22 @@
     </row>
     <row r="212" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>450</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>13</v>
@@ -13443,22 +13443,22 @@
     </row>
     <row r="213" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>13</v>
@@ -13475,22 +13475,22 @@
     </row>
     <row r="214" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>203</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>13</v>
@@ -13502,27 +13502,27 @@
         <v>46009</v>
       </c>
       <c r="J214" s="18" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>13</v>
@@ -13539,22 +13539,22 @@
     </row>
     <row r="216" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>13</v>
@@ -13571,22 +13571,22 @@
     </row>
     <row r="217" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>13</v>
@@ -13603,22 +13603,22 @@
     </row>
     <row r="218" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>13</v>
@@ -13635,25 +13635,25 @@
     </row>
     <row r="219" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>14</v>
@@ -13667,22 +13667,22 @@
     </row>
     <row r="220" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>13</v>
@@ -13699,22 +13699,22 @@
     </row>
     <row r="221" spans="1:11" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>13</v>
@@ -13731,22 +13731,22 @@
     </row>
     <row r="222" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C222" s="26" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E222" s="26" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F222" s="26" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G222" s="26" t="s">
         <v>13</v>
@@ -13763,22 +13763,22 @@
     </row>
     <row r="223" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C223" s="26" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E223" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G223" s="26" t="s">
         <v>13</v>
@@ -13796,22 +13796,22 @@
     </row>
     <row r="224" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E224" s="26" t="s">
         <v>409</v>
       </c>
       <c r="F224" s="26" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="G224" s="26" t="s">
         <v>52</v>
@@ -13828,22 +13828,22 @@
     </row>
     <row r="225" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E225" s="26" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F225" s="26" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G225" s="26" t="s">
         <v>52</v>
@@ -13860,22 +13860,22 @@
     </row>
     <row r="226" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E226" s="26" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G226" s="26" t="s">
         <v>52</v>
@@ -13892,22 +13892,22 @@
     </row>
     <row r="227" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E227" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F227" s="26" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G227" s="26" t="s">
         <v>52</v>
@@ -13924,22 +13924,22 @@
     </row>
     <row r="228" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E228" s="26" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F228" s="26" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G228" s="26" t="s">
         <v>13</v>
@@ -13951,27 +13951,27 @@
         <v>46371</v>
       </c>
       <c r="J228" s="26" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C229" s="26" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F229" s="26" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G229" s="26" t="s">
         <v>52</v>
@@ -13988,22 +13988,22 @@
     </row>
     <row r="230" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E230" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F230" s="26" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G230" s="26" t="s">
         <v>13</v>
@@ -14021,22 +14021,22 @@
     </row>
     <row r="231" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E231" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F231" s="26" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G231" s="26" t="s">
         <v>13</v>
@@ -14048,27 +14048,27 @@
         <v>46009</v>
       </c>
       <c r="J231" s="26" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="232" spans="1:11" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E232" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F232" s="26" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G232" s="26" t="s">
         <v>52</v>
@@ -14086,22 +14086,22 @@
     </row>
     <row r="233" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E233" s="26" t="s">
         <v>440</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G233" s="26" t="s">
         <v>63</v>
@@ -14119,22 +14119,22 @@
     </row>
     <row r="234" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="E234" s="26" t="s">
         <v>313</v>
       </c>
       <c r="F234" s="26" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="G234" s="26" t="s">
         <v>52</v>
@@ -14152,22 +14152,22 @@
     </row>
     <row r="235" spans="1:11" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E235" s="26" t="s">
         <v>203</v>
       </c>
       <c r="F235" s="26" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G235" s="26" t="s">
         <v>13</v>
@@ -14185,22 +14185,22 @@
     </row>
     <row r="236" spans="1:11" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E236" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F236" s="26" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="G236" s="26" t="s">
         <v>52</v>
@@ -14218,25 +14218,25 @@
     </row>
     <row r="237" spans="1:11" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E237" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F237" s="26" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G237" s="26" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H237" s="26" t="s">
         <v>14</v>
@@ -14251,22 +14251,22 @@
     </row>
     <row r="238" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E238" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F238" s="26" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="G238" s="26" t="s">
         <v>52</v>
@@ -14283,22 +14283,22 @@
     </row>
     <row r="239" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E239" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F239" s="26" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G239" s="26" t="s">
         <v>52</v>
@@ -14315,22 +14315,22 @@
     </row>
     <row r="240" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C240" s="26" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E240" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F240" s="26" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G240" s="26" t="s">
         <v>52</v>
@@ -14347,22 +14347,22 @@
     </row>
     <row r="241" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="E241" s="26" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F241" s="26" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="G241" s="26" t="s">
         <v>13</v>
@@ -14379,22 +14379,22 @@
     </row>
     <row r="242" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="E242" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F242" s="26" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G242" s="26" t="s">
         <v>52</v>
@@ -14411,22 +14411,22 @@
     </row>
     <row r="243" spans="1:11" s="13" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F243" s="26" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G243" s="26" t="s">
         <v>52</v>
@@ -14444,22 +14444,22 @@
     </row>
     <row r="244" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E244" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F244" s="26" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G244" s="26" t="s">
         <v>52</v>
@@ -14476,22 +14476,22 @@
     </row>
     <row r="245" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E245" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F245" s="26" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="G245" s="26" t="s">
         <v>52</v>
@@ -14508,22 +14508,22 @@
     </row>
     <row r="246" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E246" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F246" s="26" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="G246" s="26" t="s">
         <v>52</v>
@@ -14540,22 +14540,22 @@
     </row>
     <row r="247" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E247" s="26" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F247" s="26" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="G247" s="26" t="s">
         <v>52</v>
@@ -14572,22 +14572,22 @@
     </row>
     <row r="248" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E248" s="26" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F248" s="26" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="G248" s="26" t="s">
         <v>52</v>
@@ -14604,22 +14604,22 @@
     </row>
     <row r="249" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F249" s="26" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="G249" s="26" t="s">
         <v>52</v>
@@ -14636,22 +14636,22 @@
     </row>
     <row r="250" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F250" s="26" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="G250" s="26" t="s">
         <v>13</v>
@@ -14668,22 +14668,22 @@
     </row>
     <row r="251" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="E251" s="26" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F251" s="26" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="G251" s="26" t="s">
         <v>52</v>
@@ -14700,22 +14700,22 @@
     </row>
     <row r="252" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E252" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F252" s="26" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="G252" s="26" t="s">
         <v>52</v>
@@ -14732,22 +14732,22 @@
     </row>
     <row r="253" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E253" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="G253" s="26" t="s">
         <v>52</v>
@@ -14764,22 +14764,22 @@
     </row>
     <row r="254" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E254" s="26" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F254" s="26" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G254" s="26" t="s">
         <v>52</v>
@@ -14796,22 +14796,22 @@
     </row>
     <row r="255" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C255" s="26" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E255" s="26" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F255" s="26" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="G255" s="26" t="s">
         <v>52</v>
@@ -14828,22 +14828,22 @@
     </row>
     <row r="256" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E256" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F256" s="26" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="G256" s="26" t="s">
         <v>52</v>
@@ -14860,22 +14860,22 @@
     </row>
     <row r="257" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E257" s="26" t="s">
         <v>740</v>
       </c>
       <c r="F257" s="26" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G257" s="26" t="s">
         <v>18</v>
@@ -14892,22 +14892,22 @@
     </row>
     <row r="258" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="E258" s="26" t="s">
         <v>526</v>
       </c>
       <c r="F258" s="26" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G258" s="26" t="s">
         <v>52</v>
@@ -14924,22 +14924,22 @@
     </row>
     <row r="259" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="E259" s="26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F259" s="26" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="G259" s="26" t="s">
         <v>52</v>
@@ -14956,22 +14956,22 @@
     </row>
     <row r="260" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E260" s="26" t="s">
         <v>271</v>
       </c>
       <c r="F260" s="26" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="G260" s="26" t="s">
         <v>18</v>
@@ -14988,22 +14988,22 @@
     </row>
     <row r="261" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="E261" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F261" s="26" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="G261" s="26" t="s">
         <v>52</v>
@@ -15020,22 +15020,22 @@
     </row>
     <row r="262" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="E262" s="26" t="s">
         <v>423</v>
       </c>
       <c r="F262" s="26" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G262" s="26" t="s">
         <v>13</v>
@@ -15052,22 +15052,22 @@
     </row>
     <row r="263" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="E263" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="G263" s="26" t="s">
         <v>52</v>
@@ -15084,22 +15084,22 @@
     </row>
     <row r="264" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="E264" s="26" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F264" s="26" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="G264" s="26" t="s">
         <v>52</v>
@@ -15116,22 +15116,22 @@
     </row>
     <row r="265" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E265" s="26" t="s">
         <v>271</v>
       </c>
       <c r="F265" s="26" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="G265" s="26" t="s">
         <v>13</v>
@@ -15148,22 +15148,22 @@
     </row>
     <row r="266" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="E266" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F266" s="26" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="G266" s="26" t="s">
         <v>52</v>
@@ -15180,22 +15180,22 @@
     </row>
     <row r="267" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="E267" s="26" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F267" s="26" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="G267" s="26" t="s">
         <v>52</v>
@@ -15212,22 +15212,22 @@
     </row>
     <row r="268" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E268" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F268" s="26" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="G268" s="26" t="s">
         <v>52</v>
@@ -15244,22 +15244,22 @@
     </row>
     <row r="269" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="E269" s="26" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F269" s="26" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G269" s="26" t="s">
         <v>52</v>
@@ -15276,22 +15276,22 @@
     </row>
     <row r="270" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E270" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F270" s="26" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="G270" s="26" t="s">
         <v>52</v>
@@ -15308,22 +15308,22 @@
     </row>
     <row r="271" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="E271" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F271" s="26" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="G271" s="26" t="s">
         <v>52</v>
@@ -15340,22 +15340,22 @@
     </row>
     <row r="272" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E272" s="26" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F272" s="26" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G272" s="26" t="s">
         <v>52</v>
@@ -15372,22 +15372,22 @@
     </row>
     <row r="273" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C273" s="26" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="E273" s="26" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F273" s="26" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G273" s="26" t="s">
         <v>52</v>
@@ -15404,22 +15404,22 @@
     </row>
     <row r="274" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="E274" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F274" s="26" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="G274" s="26" t="s">
         <v>52</v>
@@ -15436,22 +15436,22 @@
     </row>
     <row r="275" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F275" s="26" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="G275" s="26" t="s">
         <v>52</v>
@@ -15468,22 +15468,22 @@
     </row>
     <row r="276" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E276" s="26" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F276" s="26" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="G276" s="26" t="s">
         <v>52</v>
@@ -15500,22 +15500,22 @@
     </row>
     <row r="277" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="E277" s="26" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F277" s="26" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G277" s="26" t="s">
         <v>13</v>
@@ -15532,22 +15532,22 @@
     </row>
     <row r="278" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E278" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F278" s="26" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G278" s="26" t="s">
         <v>13</v>
@@ -15564,22 +15564,22 @@
     </row>
     <row r="279" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C279" s="26" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E279" s="26" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F279" s="26" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="G279" s="26" t="s">
         <v>13</v>
@@ -15591,27 +15591,27 @@
         <v>46371</v>
       </c>
       <c r="J279" s="26" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="E280" s="26" t="s">
         <v>418</v>
       </c>
       <c r="F280" s="26" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="G280" s="26" t="s">
         <v>13</v>
@@ -15623,27 +15623,27 @@
         <v>46009</v>
       </c>
       <c r="J280" s="26" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E281" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F281" s="26" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="G281" s="26" t="s">
         <v>52</v>
@@ -15660,22 +15660,22 @@
     </row>
     <row r="282" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="E282" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F282" s="26" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="G282" s="26" t="s">
         <v>52</v>
@@ -15692,22 +15692,22 @@
     </row>
     <row r="283" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F283" s="26" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="G283" s="26" t="s">
         <v>18</v>
@@ -15724,22 +15724,22 @@
     </row>
     <row r="284" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E284" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F284" s="26" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="G284" s="26" t="s">
         <v>52</v>
@@ -15756,22 +15756,22 @@
     </row>
     <row r="285" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E285" s="26" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F285" s="26" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="G285" s="26" t="s">
         <v>18</v>
@@ -15788,22 +15788,22 @@
     </row>
     <row r="286" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E286" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F286" s="26" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="G286" s="26" t="s">
         <v>52</v>
@@ -15820,22 +15820,22 @@
     </row>
     <row r="287" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="E287" s="26" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F287" s="26" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="G287" s="26" t="s">
         <v>13</v>
@@ -15852,22 +15852,22 @@
     </row>
     <row r="288" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C288" s="26" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E288" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F288" s="26" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G288" s="26" t="s">
         <v>52</v>
@@ -15884,22 +15884,22 @@
     </row>
     <row r="289" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C289" s="26" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F289" s="26" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="G289" s="26" t="s">
         <v>13</v>
@@ -15911,27 +15911,27 @@
         <v>46009</v>
       </c>
       <c r="J289" s="26" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C290" s="26" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="E290" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F290" s="26" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="G290" s="26" t="s">
         <v>13</v>
@@ -15948,22 +15948,22 @@
     </row>
     <row r="291" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E291" s="26" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F291" s="26" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="G291" s="26" t="s">
         <v>52</v>
@@ -15980,22 +15980,22 @@
     </row>
     <row r="292" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E292" s="26" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G292" s="26" t="s">
         <v>13</v>
@@ -16012,22 +16012,22 @@
     </row>
     <row r="293" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C293" s="26" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E293" s="26" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F293" s="26" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="G293" s="26" t="s">
         <v>13</v>
@@ -16044,22 +16044,22 @@
     </row>
     <row r="294" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C294" s="26" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D294" s="26" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E294" s="26" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F294" s="26" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="G294" s="26" t="s">
         <v>13</v>
@@ -16076,22 +16076,22 @@
     </row>
     <row r="295" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C295" s="26" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E295" s="26" t="s">
         <v>671</v>
       </c>
       <c r="F295" s="26" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="G295" s="26" t="s">
         <v>18</v>
@@ -16108,22 +16108,22 @@
     </row>
     <row r="296" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="E296" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F296" s="26" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="G296" s="26" t="s">
         <v>52</v>
@@ -16140,22 +16140,22 @@
     </row>
     <row r="297" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B297" s="26" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E297" s="26" t="s">
         <v>423</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="G297" s="26" t="s">
         <v>18</v>
@@ -16172,22 +16172,22 @@
     </row>
     <row r="298" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B298" s="26" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E298" s="26" t="s">
         <v>423</v>
       </c>
       <c r="F298" s="26" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="G298" s="26" t="s">
         <v>52</v>
@@ -16204,22 +16204,22 @@
     </row>
     <row r="299" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E299" s="26" t="s">
         <v>464</v>
       </c>
       <c r="F299" s="26" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G299" s="26" t="s">
         <v>52</v>
@@ -16236,22 +16236,22 @@
     </row>
     <row r="300" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D300" s="26" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E300" s="26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F300" s="26" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="G300" s="26" t="s">
         <v>52</v>
@@ -16268,22 +16268,22 @@
     </row>
     <row r="301" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E301" s="26" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F301" s="26" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="G301" s="26" t="s">
         <v>52</v>
@@ -16300,22 +16300,22 @@
     </row>
     <row r="302" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B302" s="32" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C302" s="32" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D302" s="32" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E302" s="32" t="s">
         <v>450</v>
       </c>
       <c r="F302" s="32" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="G302" s="32" t="s">
         <v>18</v>
@@ -16332,7 +16332,7 @@
     </row>
     <row r="303" spans="1:10" s="4" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>195</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="304" spans="1:10" s="7" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>200</v>
@@ -16396,7 +16396,7 @@
     </row>
     <row r="305" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>205</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="306" spans="1:10" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>210</v>
@@ -16460,7 +16460,7 @@
     </row>
     <row r="307" spans="1:10" s="10" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>215</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="308" spans="1:10" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>220</v>
@@ -16524,7 +16524,7 @@
     </row>
     <row r="309" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>225</v>
@@ -16556,7 +16556,7 @@
     </row>
     <row r="310" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>230</v>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="311" spans="1:10" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>234</v>
@@ -16620,7 +16620,7 @@
     </row>
     <row r="312" spans="1:10" s="10" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>239</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="313" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>244</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="314" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>249</v>
@@ -16716,7 +16716,7 @@
     </row>
     <row r="315" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>254</v>
@@ -16748,7 +16748,7 @@
     </row>
     <row r="316" spans="1:10" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>259</v>
@@ -16780,7 +16780,7 @@
     </row>
     <row r="317" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>263</v>
@@ -16812,7 +16812,7 @@
     </row>
     <row r="318" spans="1:10" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>268</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="319" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>273</v>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="320" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>278</v>
@@ -16908,7 +16908,7 @@
     </row>
     <row r="321" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>283</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="322" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>288</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="323" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>293</v>
@@ -17004,7 +17004,7 @@
     </row>
     <row r="324" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>297</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="325" spans="1:10" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>301</v>
@@ -17068,7 +17068,7 @@
     </row>
     <row r="326" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>306</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="327" spans="1:10" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>310</v>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="328" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>315</v>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="329" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>319</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="330" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>323</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="331" spans="1:10" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>327</v>
@@ -17260,7 +17260,7 @@
     </row>
     <row r="332" spans="1:10" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>331</v>
@@ -17292,7 +17292,7 @@
     </row>
     <row r="333" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>336</v>
@@ -17324,7 +17324,7 @@
     </row>
     <row r="334" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>340</v>
@@ -17356,7 +17356,7 @@
     </row>
     <row r="335" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>344</v>
@@ -17388,7 +17388,7 @@
     </row>
     <row r="336" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>348</v>
@@ -17420,7 +17420,7 @@
     </row>
     <row r="337" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>353</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="338" spans="1:10" s="13" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>357</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="339" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>362</v>
@@ -17516,7 +17516,7 @@
     </row>
     <row r="340" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>366</v>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="341" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>370</v>
@@ -17580,7 +17580,7 @@
     </row>
     <row r="342" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>375</v>
@@ -17612,7 +17612,7 @@
     </row>
     <row r="343" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>379</v>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="344" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>383</v>
@@ -17676,7 +17676,7 @@
     </row>
     <row r="345" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>387</v>
@@ -17708,7 +17708,7 @@
     </row>
     <row r="346" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>392</v>
@@ -17740,7 +17740,7 @@
     </row>
     <row r="347" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>396</v>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="348" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>401</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="349" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>406</v>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="350" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>411</v>
@@ -17868,7 +17868,7 @@
     </row>
     <row r="351" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>415</v>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="352" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>420</v>
@@ -17932,7 +17932,7 @@
     </row>
     <row r="353" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>425</v>
@@ -17964,7 +17964,7 @@
     </row>
     <row r="354" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>429</v>
@@ -17996,7 +17996,7 @@
     </row>
     <row r="355" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>433</v>
@@ -18028,7 +18028,7 @@
     </row>
     <row r="356" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>437</v>
@@ -18060,7 +18060,7 @@
     </row>
     <row r="357" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>442</v>
@@ -18092,7 +18092,7 @@
     </row>
     <row r="358" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>447</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="359" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>452</v>
@@ -18156,7 +18156,7 @@
     </row>
     <row r="360" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A360" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>457</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="361" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>461</v>
@@ -18220,7 +18220,7 @@
     </row>
     <row r="362" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>466</v>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="363" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>470</v>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="364" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>474</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="365" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>479</v>
@@ -18348,7 +18348,7 @@
     </row>
     <row r="366" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>484</v>
@@ -18380,7 +18380,7 @@
     </row>
     <row r="367" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>489</v>
@@ -18412,7 +18412,7 @@
     </row>
     <row r="368" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>493</v>
@@ -18444,7 +18444,7 @@
     </row>
     <row r="369" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>497</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="370" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>501</v>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="371" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>506</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="372" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>510</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="373" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>514</v>
@@ -18604,7 +18604,7 @@
     </row>
     <row r="374" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>517</v>
@@ -18636,7 +18636,7 @@
     </row>
     <row r="375" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>520</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="376" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>523</v>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="377" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>527</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="378" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>530</v>
@@ -18764,7 +18764,7 @@
     </row>
     <row r="379" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>534</v>
@@ -18796,7 +18796,7 @@
     </row>
     <row r="380" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>537</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="381" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>541</v>
@@ -18860,7 +18860,7 @@
     </row>
     <row r="382" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>551</v>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="383" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>555</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="384" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>559</v>
@@ -18956,7 +18956,7 @@
     </row>
     <row r="385" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>564</v>
@@ -18988,7 +18988,7 @@
     </row>
     <row r="386" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>568</v>
@@ -19020,7 +19020,7 @@
     </row>
     <row r="387" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>572</v>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="388" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>576</v>
@@ -19084,7 +19084,7 @@
     </row>
     <row r="389" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>580</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="390" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>584</v>
@@ -19148,7 +19148,7 @@
     </row>
     <row r="391" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>588</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="392" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>592</v>
@@ -19212,7 +19212,7 @@
     </row>
     <row r="393" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>596</v>
@@ -19244,7 +19244,7 @@
     </row>
     <row r="394" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>600</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="395" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>604</v>
@@ -19308,7 +19308,7 @@
     </row>
     <row r="396" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>608</v>
@@ -19340,7 +19340,7 @@
     </row>
     <row r="397" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>612</v>
@@ -19372,7 +19372,7 @@
     </row>
     <row r="398" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>617</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="399" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>621</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="400" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>626</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="401" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>630</v>
@@ -19500,7 +19500,7 @@
     </row>
     <row r="402" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A402" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>634</v>
@@ -19532,7 +19532,7 @@
     </row>
     <row r="403" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A403" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>639</v>
@@ -19564,7 +19564,7 @@
     </row>
     <row r="404" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>643</v>
@@ -19596,7 +19596,7 @@
     </row>
     <row r="405" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>647</v>
@@ -19628,7 +19628,7 @@
     </row>
     <row r="406" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>651</v>
@@ -19660,7 +19660,7 @@
     </row>
     <row r="407" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>655</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="408" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>659</v>
@@ -19724,7 +19724,7 @@
     </row>
     <row r="409" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>661</v>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="410" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>665</v>

--- a/horizon_calls.xlsx
+++ b/horizon_calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U107172\Desktop\Scripts\AplicacionsWeb\HEFundingSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D46A5-2D67-4044-AF6C-0796AA145F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56435F-630B-43DD-BAC1-71D4E931A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15270" xr2:uid="{E77A4C11-5916-4FBB-AC0E-9918928F7C9A}"/>
   </bookViews>
@@ -6613,8 +6613,8 @@
   <dimension ref="A1:K410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/horizon_calls.xlsx
+++ b/horizon_calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U107172\Desktop\Scripts\AplicacionsWeb\HEFundingSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB694F-3FA7-4E31-94DF-CCB816CD45EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221049BA-00B7-4CD4-8C19-90F027C0F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15270" xr2:uid="{E77A4C11-5916-4FBB-AC0E-9918928F7C9A}"/>
   </bookViews>
@@ -8030,7 +8030,7 @@
     <t xml:space="preserve"> Proposals should support the administrative and logistic organisation, the facilitation, and the reporting of the meetings and workshops of SCAR WGs [133]. Thematic work of the groups should be supported by preparing relevant analyses and outputs adapted to their needs [133]. Cross-collaboration across SCAR WGs and synergies with other EU-level R&amp;I initiatives should be encouraged and facilitated [133].</t>
   </si>
   <si>
-    <t>Environmental health; Public health and epidemiology; Climatology and climate change; Atmospheric chemistry; Bioinformatics and computational biology; Social and Behavioural studies</t>
+    <t>Environmental health; Public health and epidemiology; Climatology and climate change; Atmospheric chemistry; Bioinformatics and computational biology; Social and Behavioural studies;</t>
   </si>
 </sst>
 </file>
@@ -9243,7 +9243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/horizon_calls.xlsx
+++ b/horizon_calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U107172\Desktop\Scripts\AplicacionsWeb\HEFundingSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC303E-2EC8-4977-B444-2453C42CFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71391662-385A-4913-BBD5-975B3DFC6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E77A4C11-5916-4FBB-AC0E-9918928F7C9A}"/>
   </bookViews>
@@ -8559,7 +8559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8672,70 +8672,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF303030"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9072,6 +9013,47 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF303030"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9302,15 +9284,15 @@
     <tableColumn id="2" xr3:uid="{D0C36274-86D8-4030-98DE-33EC867DF8AC}" name="Call ID" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{AA7D4D16-6F67-43C4-A285-A1776EC88399}" name="Call Title" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{6CC0F355-C340-46AF-B0D9-32889DEFF265}" name="Keywords" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3E428057-5AE5-4357-A5B6-35A8BAA2C3FE}" name="SSH Keywords" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{B7BE330D-0D52-4E83-9A88-D83C86D842CE}" name="Research Fields" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{99A724D8-36E5-4B6F-BAEB-403FA0CA5D2C}" name="Summary" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{06C07A82-B213-4650-A50A-6F7E7B174788}" name="Type of Action" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{1C61F6E8-DA87-46FC-9895-3F4C2C40ED72}" name="Single Stage or Two Stage" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E17FD185-A4D0-411F-9807-9EA3343BAA75}" name="Opening date" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{33DC92E7-C501-4828-BC5A-B777E8E89956}" name="Deadline(s)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{68BAD24B-E00A-41CA-83C1-1E4C0CCC2B61}" name="Expected Outcomes" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0B4B1C0D-BE51-4D95-A71C-1A5B15DC1CB9}" name="Scope" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{3E428057-5AE5-4357-A5B6-35A8BAA2C3FE}" name="SSH Keywords" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B7BE330D-0D52-4E83-9A88-D83C86D842CE}" name="Research Fields" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{99A724D8-36E5-4B6F-BAEB-403FA0CA5D2C}" name="Summary" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{06C07A82-B213-4650-A50A-6F7E7B174788}" name="Type of Action" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{1C61F6E8-DA87-46FC-9895-3F4C2C40ED72}" name="Single Stage or Two Stage" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E17FD185-A4D0-411F-9807-9EA3343BAA75}" name="Opening date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{33DC92E7-C501-4828-BC5A-B777E8E89956}" name="Deadline(s)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{68BAD24B-E00A-41CA-83C1-1E4C0CCC2B61}" name="Expected Outcomes" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0B4B1C0D-BE51-4D95-A71C-1A5B15DC1CB9}" name="Scope" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9636,23 +9618,23 @@
   <dimension ref="A1:M418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17" style="39" customWidth="1"/>
-    <col min="3" max="3" width="43" style="38" customWidth="1"/>
-    <col min="4" max="5" width="41.33203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="15" style="41" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="57.5546875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="42.5546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17" style="22" customWidth="1"/>
+    <col min="3" max="3" width="43" style="5" customWidth="1"/>
+    <col min="4" max="5" width="41.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15" style="14" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="57.5546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="42.5546875" style="15" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
@@ -9995,7 +9977,6 @@
       <c r="D9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
@@ -10116,7 +10097,6 @@
       <c r="D12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
         <v>1801</v>
       </c>
@@ -10276,7 +10256,6 @@
       <c r="D16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
         <v>109</v>
       </c>
@@ -10397,7 +10376,6 @@
       <c r="D19" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
         <v>1799</v>
       </c>
@@ -10436,7 +10414,6 @@
       <c r="D20" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
         <v>109</v>
       </c>
@@ -10475,7 +10452,6 @@
       <c r="D21" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
         <v>109</v>
       </c>
@@ -10514,7 +10490,6 @@
       <c r="D22" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
         <v>109</v>
       </c>
@@ -10674,7 +10649,6 @@
       <c r="D26" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
         <v>39</v>
       </c>
@@ -10754,7 +10728,6 @@
       <c r="D28" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
         <v>26</v>
       </c>
@@ -10793,7 +10766,6 @@
       <c r="D29" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="15"/>
       <c r="F29" s="15" t="s">
         <v>32</v>
       </c>
@@ -10832,7 +10804,6 @@
       <c r="D30" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
         <v>161</v>
       </c>
@@ -10871,7 +10842,6 @@
       <c r="D31" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
         <v>32</v>
       </c>
@@ -10949,7 +10919,6 @@
       <c r="D33" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
         <v>41</v>
       </c>
@@ -10988,7 +10957,6 @@
       <c r="D34" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
         <v>175</v>
       </c>
@@ -11068,7 +11036,6 @@
       <c r="D36" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
         <v>46</v>
       </c>
@@ -11107,7 +11074,6 @@
       <c r="D37" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
         <v>1800</v>
       </c>
@@ -12659,7 +12625,6 @@
       <c r="D75" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="E75" s="15"/>
       <c r="F75" s="15" t="s">
         <v>480</v>
       </c>
@@ -13477,7 +13442,6 @@
       <c r="D95" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="E95" s="15"/>
       <c r="F95" s="15" t="s">
         <v>768</v>
       </c>
@@ -13516,7 +13480,6 @@
       <c r="D96" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="E96" s="15"/>
       <c r="F96" s="15" t="s">
         <v>926</v>
       </c>
@@ -13637,7 +13600,6 @@
       <c r="D99" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="E99" s="15"/>
       <c r="F99" s="15" t="s">
         <v>940</v>
       </c>
@@ -13676,7 +13638,6 @@
       <c r="D100" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="E100" s="15"/>
       <c r="F100" s="15" t="s">
         <v>768</v>
       </c>
@@ -13797,7 +13758,6 @@
       <c r="D103" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="E103" s="15"/>
       <c r="F103" s="15" t="s">
         <v>959</v>
       </c>
@@ -13877,7 +13837,6 @@
       <c r="D105" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="E105" s="15"/>
       <c r="F105" s="15" t="s">
         <v>966</v>
       </c>
@@ -13916,7 +13875,6 @@
       <c r="D106" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="E106" s="15"/>
       <c r="F106" s="15" t="s">
         <v>768</v>
       </c>
@@ -13955,7 +13913,6 @@
       <c r="D107" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="E107" s="15"/>
       <c r="F107" s="15" t="s">
         <v>187</v>
       </c>
@@ -13994,7 +13951,6 @@
       <c r="D108" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="E108" s="15"/>
       <c r="F108" s="15" t="s">
         <v>773</v>
       </c>
@@ -14033,7 +13989,6 @@
       <c r="D109" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="E109" s="15"/>
       <c r="F109" s="15" t="s">
         <v>981</v>
       </c>
@@ -14072,7 +14027,6 @@
       <c r="D110" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="E110" s="15"/>
       <c r="F110" s="15" t="s">
         <v>986</v>
       </c>
@@ -14111,7 +14065,6 @@
       <c r="D111" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="E111" s="15"/>
       <c r="F111" s="15" t="s">
         <v>989</v>
       </c>
@@ -14150,7 +14103,6 @@
       <c r="D112" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="E112" s="15"/>
       <c r="F112" s="15" t="s">
         <v>462</v>
       </c>
@@ -14189,7 +14141,6 @@
       <c r="D113" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="E113" s="15"/>
       <c r="F113" s="15" t="s">
         <v>524</v>
       </c>
@@ -14228,7 +14179,6 @@
       <c r="D114" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="E114" s="15"/>
       <c r="F114" s="15" t="s">
         <v>1002</v>
       </c>
@@ -14267,7 +14217,6 @@
       <c r="D115" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="E115" s="15"/>
       <c r="F115" s="15" t="s">
         <v>959</v>
       </c>
@@ -14388,7 +14337,6 @@
       <c r="D118" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="E118" s="15"/>
       <c r="F118" s="15" t="s">
         <v>1002</v>
       </c>
@@ -14427,7 +14375,6 @@
       <c r="D119" s="15" t="s">
         <v>1020</v>
       </c>
-      <c r="E119" s="15"/>
       <c r="F119" s="15" t="s">
         <v>1021</v>
       </c>
@@ -14466,7 +14413,6 @@
       <c r="D120" s="15" t="s">
         <v>1025</v>
       </c>
-      <c r="E120" s="15"/>
       <c r="F120" s="15" t="s">
         <v>216</v>
       </c>
@@ -14505,7 +14451,6 @@
       <c r="D121" s="15" t="s">
         <v>1029</v>
       </c>
-      <c r="E121" s="15"/>
       <c r="F121" s="15" t="s">
         <v>416</v>
       </c>
@@ -14585,7 +14530,6 @@
       <c r="D123" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="E123" s="15"/>
       <c r="F123" s="15" t="s">
         <v>981</v>
       </c>
@@ -14624,7 +14568,6 @@
       <c r="D124" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="E124" s="15"/>
       <c r="F124" s="15" t="s">
         <v>768</v>
       </c>
@@ -14663,7 +14606,6 @@
       <c r="D125" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="E125" s="15"/>
       <c r="F125" s="15" t="s">
         <v>768</v>
       </c>
@@ -14702,7 +14644,6 @@
       <c r="D126" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="E126" s="15"/>
       <c r="F126" s="15" t="s">
         <v>1048</v>
       </c>
@@ -14741,7 +14682,6 @@
       <c r="D127" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="E127" s="15"/>
       <c r="F127" s="15" t="s">
         <v>1053</v>
       </c>
@@ -14780,7 +14720,6 @@
       <c r="D128" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="E128" s="15"/>
       <c r="F128" s="15" t="s">
         <v>1058</v>
       </c>
@@ -14819,7 +14758,6 @@
       <c r="D129" s="15" t="s">
         <v>1062</v>
       </c>
-      <c r="E129" s="15"/>
       <c r="F129" s="15" t="s">
         <v>1048</v>
       </c>
@@ -14858,7 +14796,6 @@
       <c r="D130" s="15" t="s">
         <v>1066</v>
       </c>
-      <c r="E130" s="15"/>
       <c r="F130" s="15" t="s">
         <v>1048</v>
       </c>
@@ -14897,7 +14834,6 @@
       <c r="D131" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="E131" s="15"/>
       <c r="F131" s="15" t="s">
         <v>1048</v>
       </c>
@@ -14936,7 +14872,6 @@
       <c r="D132" s="15" t="s">
         <v>1978</v>
       </c>
-      <c r="E132" s="15"/>
       <c r="F132" s="15" t="s">
         <v>1142</v>
       </c>
@@ -14975,7 +14910,6 @@
       <c r="D133" s="15" t="s">
         <v>1981</v>
       </c>
-      <c r="E133" s="15"/>
       <c r="F133" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15014,7 +14948,6 @@
       <c r="D134" s="15" t="s">
         <v>1984</v>
       </c>
-      <c r="E134" s="15"/>
       <c r="F134" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15053,7 +14986,6 @@
       <c r="D135" s="15" t="s">
         <v>1987</v>
       </c>
-      <c r="E135" s="15"/>
       <c r="F135" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15092,7 +15024,6 @@
       <c r="D136" s="15" t="s">
         <v>1990</v>
       </c>
-      <c r="E136" s="15"/>
       <c r="F136" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15131,7 +15062,6 @@
       <c r="D137" s="15" t="s">
         <v>1993</v>
       </c>
-      <c r="E137" s="15"/>
       <c r="F137" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15170,7 +15100,6 @@
       <c r="D138" s="15" t="s">
         <v>1996</v>
       </c>
-      <c r="E138" s="15"/>
       <c r="F138" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15209,7 +15138,6 @@
       <c r="D139" s="15" t="s">
         <v>1073</v>
       </c>
-      <c r="E139" s="15"/>
       <c r="F139" s="15" t="s">
         <v>1074</v>
       </c>
@@ -15248,7 +15176,6 @@
       <c r="D140" s="15" t="s">
         <v>1078</v>
       </c>
-      <c r="E140" s="15"/>
       <c r="F140" s="15" t="s">
         <v>1079</v>
       </c>
@@ -15287,7 +15214,6 @@
       <c r="D141" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="E141" s="15"/>
       <c r="F141" s="15" t="s">
         <v>1083</v>
       </c>
@@ -15326,7 +15252,6 @@
       <c r="D142" s="15" t="s">
         <v>1086</v>
       </c>
-      <c r="E142" s="15"/>
       <c r="F142" s="15" t="s">
         <v>1087</v>
       </c>
@@ -15365,7 +15290,6 @@
       <c r="D143" s="15" t="s">
         <v>1090</v>
       </c>
-      <c r="E143" s="15"/>
       <c r="F143" s="15" t="s">
         <v>416</v>
       </c>
@@ -15404,7 +15328,6 @@
       <c r="D144" s="15" t="s">
         <v>1092</v>
       </c>
-      <c r="E144" s="15"/>
       <c r="F144" s="15" t="s">
         <v>416</v>
       </c>
@@ -15443,7 +15366,6 @@
       <c r="D145" s="15" t="s">
         <v>1095</v>
       </c>
-      <c r="E145" s="15"/>
       <c r="F145" s="15" t="s">
         <v>1002</v>
       </c>
@@ -15482,7 +15404,6 @@
       <c r="D146" s="15" t="s">
         <v>1098</v>
       </c>
-      <c r="E146" s="15"/>
       <c r="F146" s="15" t="s">
         <v>1099</v>
       </c>
@@ -15521,7 +15442,6 @@
       <c r="D147" s="15" t="s">
         <v>1102</v>
       </c>
-      <c r="E147" s="15"/>
       <c r="F147" s="15" t="s">
         <v>1103</v>
       </c>
@@ -15560,7 +15480,6 @@
       <c r="D148" s="15" t="s">
         <v>1105</v>
       </c>
-      <c r="E148" s="15"/>
       <c r="F148" s="15" t="s">
         <v>1079</v>
       </c>
@@ -15599,7 +15518,6 @@
       <c r="D149" s="15" t="s">
         <v>1108</v>
       </c>
-      <c r="E149" s="15"/>
       <c r="F149" s="15" t="s">
         <v>407</v>
       </c>
@@ -15638,7 +15556,6 @@
       <c r="D150" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="E150" s="15"/>
       <c r="F150" s="15" t="s">
         <v>1112</v>
       </c>
@@ -15677,7 +15594,6 @@
       <c r="D151" s="15" t="s">
         <v>1115</v>
       </c>
-      <c r="E151" s="15"/>
       <c r="F151" s="15" t="s">
         <v>1116</v>
       </c>
@@ -15798,7 +15714,6 @@
       <c r="D154" s="15" t="s">
         <v>1126</v>
       </c>
-      <c r="E154" s="15"/>
       <c r="F154" s="15" t="s">
         <v>1127</v>
       </c>
@@ -15837,7 +15752,6 @@
       <c r="D155" s="15" t="s">
         <v>1130</v>
       </c>
-      <c r="E155" s="15"/>
       <c r="F155" s="15" t="s">
         <v>1112</v>
       </c>
@@ -15917,7 +15831,6 @@
       <c r="D157" s="15" t="s">
         <v>1138</v>
       </c>
-      <c r="E157" s="15"/>
       <c r="F157" s="15" t="s">
         <v>1135</v>
       </c>
@@ -15956,7 +15869,6 @@
       <c r="D158" s="15" t="s">
         <v>1141</v>
       </c>
-      <c r="E158" s="15"/>
       <c r="F158" s="15" t="s">
         <v>1142</v>
       </c>
@@ -15995,7 +15907,6 @@
       <c r="D159" s="15" t="s">
         <v>1144</v>
       </c>
-      <c r="E159" s="15"/>
       <c r="F159" s="15" t="s">
         <v>1135</v>
       </c>
@@ -16034,7 +15945,6 @@
       <c r="D160" s="15" t="s">
         <v>1147</v>
       </c>
-      <c r="E160" s="15"/>
       <c r="F160" s="15" t="s">
         <v>1135</v>
       </c>
@@ -16073,7 +15983,6 @@
       <c r="D161" s="15" t="s">
         <v>1149</v>
       </c>
-      <c r="E161" s="15"/>
       <c r="F161" s="15" t="s">
         <v>1135</v>
       </c>
@@ -16112,7 +16021,6 @@
       <c r="D162" s="15" t="s">
         <v>1152</v>
       </c>
-      <c r="E162" s="15"/>
       <c r="F162" s="15" t="s">
         <v>201</v>
       </c>
@@ -16151,7 +16059,6 @@
       <c r="D163" s="15" t="s">
         <v>1155</v>
       </c>
-      <c r="E163" s="15"/>
       <c r="F163" s="15" t="s">
         <v>1156</v>
       </c>
@@ -16190,7 +16097,6 @@
       <c r="D164" s="15" t="s">
         <v>1159</v>
       </c>
-      <c r="E164" s="15"/>
       <c r="F164" s="15" t="s">
         <v>1160</v>
       </c>
@@ -16229,7 +16135,6 @@
       <c r="D165" s="15" t="s">
         <v>1163</v>
       </c>
-      <c r="E165" s="15"/>
       <c r="F165" s="15" t="s">
         <v>1099</v>
       </c>
@@ -16268,7 +16173,6 @@
       <c r="D166" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="E166" s="15"/>
       <c r="F166" s="15" t="s">
         <v>1099</v>
       </c>
@@ -16307,7 +16211,6 @@
       <c r="D167" s="15" t="s">
         <v>1169</v>
       </c>
-      <c r="E167" s="15"/>
       <c r="F167" s="15" t="s">
         <v>1135</v>
       </c>
@@ -16346,7 +16249,6 @@
       <c r="D168" s="15" t="s">
         <v>1172</v>
       </c>
-      <c r="E168" s="15"/>
       <c r="F168" s="15" t="s">
         <v>1173</v>
       </c>
@@ -16385,7 +16287,6 @@
       <c r="D169" s="15" t="s">
         <v>1205</v>
       </c>
-      <c r="E169" s="15"/>
       <c r="F169" s="15" t="s">
         <v>1058</v>
       </c>
@@ -16424,7 +16325,6 @@
       <c r="D170" s="15" t="s">
         <v>1209</v>
       </c>
-      <c r="E170" s="15"/>
       <c r="F170" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16463,7 +16363,6 @@
       <c r="D171" s="15" t="s">
         <v>1213</v>
       </c>
-      <c r="E171" s="15"/>
       <c r="F171" s="15" t="s">
         <v>1053</v>
       </c>
@@ -16502,7 +16401,6 @@
       <c r="D172" s="15" t="s">
         <v>1217</v>
       </c>
-      <c r="E172" s="15"/>
       <c r="F172" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16541,7 +16439,6 @@
       <c r="D173" s="15" t="s">
         <v>1221</v>
       </c>
-      <c r="E173" s="15"/>
       <c r="F173" s="15" t="s">
         <v>1222</v>
       </c>
@@ -16580,7 +16477,6 @@
       <c r="D174" s="15" t="s">
         <v>1226</v>
       </c>
-      <c r="E174" s="15"/>
       <c r="F174" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16619,7 +16515,6 @@
       <c r="D175" s="15" t="s">
         <v>1230</v>
       </c>
-      <c r="E175" s="15"/>
       <c r="F175" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16658,7 +16553,6 @@
       <c r="D176" s="15" t="s">
         <v>1234</v>
       </c>
-      <c r="E176" s="15"/>
       <c r="F176" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16697,7 +16591,6 @@
       <c r="D177" s="15" t="s">
         <v>1238</v>
       </c>
-      <c r="E177" s="15"/>
       <c r="F177" s="15" t="s">
         <v>1142</v>
       </c>
@@ -16736,7 +16629,6 @@
       <c r="D178" s="15" t="s">
         <v>1242</v>
       </c>
-      <c r="E178" s="15"/>
       <c r="F178" s="15" t="s">
         <v>613</v>
       </c>
@@ -16775,7 +16667,6 @@
       <c r="D179" s="15" t="s">
         <v>1246</v>
       </c>
-      <c r="E179" s="15"/>
       <c r="F179" s="15" t="s">
         <v>613</v>
       </c>
@@ -16814,7 +16705,6 @@
       <c r="D180" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="E180" s="15"/>
       <c r="F180" s="15" t="s">
         <v>1251</v>
       </c>
@@ -16853,7 +16743,6 @@
       <c r="D181" s="15" t="s">
         <v>1255</v>
       </c>
-      <c r="E181" s="15"/>
       <c r="F181" s="15" t="s">
         <v>1058</v>
       </c>
@@ -16892,7 +16781,6 @@
       <c r="D182" s="15" t="s">
         <v>1259</v>
       </c>
-      <c r="E182" s="15"/>
       <c r="F182" s="15" t="s">
         <v>1116</v>
       </c>
@@ -16931,7 +16819,6 @@
       <c r="D183" s="15" t="s">
         <v>1263</v>
       </c>
-      <c r="E183" s="15"/>
       <c r="F183" s="15" t="s">
         <v>1264</v>
       </c>
@@ -16970,7 +16857,6 @@
       <c r="D184" s="15" t="s">
         <v>1268</v>
       </c>
-      <c r="E184" s="15"/>
       <c r="F184" s="15" t="s">
         <v>613</v>
       </c>
@@ -17009,7 +16895,6 @@
       <c r="D185" s="15" t="s">
         <v>1272</v>
       </c>
-      <c r="E185" s="15"/>
       <c r="F185" s="15" t="s">
         <v>1273</v>
       </c>
@@ -17048,7 +16933,6 @@
       <c r="D186" s="15" t="s">
         <v>1277</v>
       </c>
-      <c r="E186" s="15"/>
       <c r="F186" s="15" t="s">
         <v>1278</v>
       </c>
@@ -17087,7 +16971,6 @@
       <c r="D187" s="15" t="s">
         <v>1282</v>
       </c>
-      <c r="E187" s="15"/>
       <c r="F187" s="15" t="s">
         <v>1278</v>
       </c>
@@ -17126,7 +17009,6 @@
       <c r="D188" s="15" t="s">
         <v>1286</v>
       </c>
-      <c r="E188" s="15"/>
       <c r="F188" s="15" t="s">
         <v>1287</v>
       </c>
@@ -17165,7 +17047,6 @@
       <c r="D189" s="15" t="s">
         <v>1291</v>
       </c>
-      <c r="E189" s="15"/>
       <c r="F189" s="15" t="s">
         <v>1292</v>
       </c>
@@ -17204,7 +17085,6 @@
       <c r="D190" s="15" t="s">
         <v>1296</v>
       </c>
-      <c r="E190" s="15"/>
       <c r="F190" s="15" t="s">
         <v>1292</v>
       </c>
@@ -17243,7 +17123,6 @@
       <c r="D191" s="15" t="s">
         <v>1300</v>
       </c>
-      <c r="E191" s="15"/>
       <c r="F191" s="15" t="s">
         <v>831</v>
       </c>
@@ -17282,7 +17161,6 @@
       <c r="D192" s="15" t="s">
         <v>1304</v>
       </c>
-      <c r="E192" s="15"/>
       <c r="F192" s="15" t="s">
         <v>1305</v>
       </c>
@@ -17321,7 +17199,6 @@
       <c r="D193" s="15" t="s">
         <v>1309</v>
       </c>
-      <c r="E193" s="15"/>
       <c r="F193" s="15" t="s">
         <v>989</v>
       </c>
@@ -17360,7 +17237,6 @@
       <c r="D194" s="15" t="s">
         <v>1313</v>
       </c>
-      <c r="E194" s="15"/>
       <c r="F194" s="15" t="s">
         <v>959</v>
       </c>
@@ -17399,7 +17275,6 @@
       <c r="D195" s="15" t="s">
         <v>1317</v>
       </c>
-      <c r="E195" s="15"/>
       <c r="F195" s="15" t="s">
         <v>989</v>
       </c>
@@ -17438,7 +17313,6 @@
       <c r="D196" s="15" t="s">
         <v>1321</v>
       </c>
-      <c r="E196" s="15"/>
       <c r="F196" s="15" t="s">
         <v>1099</v>
       </c>
@@ -17477,7 +17351,6 @@
       <c r="D197" s="15" t="s">
         <v>1325</v>
       </c>
-      <c r="E197" s="15"/>
       <c r="F197" s="15" t="s">
         <v>1222</v>
       </c>
@@ -17516,7 +17389,6 @@
       <c r="D198" s="15" t="s">
         <v>1329</v>
       </c>
-      <c r="E198" s="15"/>
       <c r="F198" s="15" t="s">
         <v>1002</v>
       </c>
@@ -17555,7 +17427,6 @@
       <c r="D199" s="15" t="s">
         <v>1333</v>
       </c>
-      <c r="E199" s="15"/>
       <c r="F199" s="15" t="s">
         <v>1334</v>
       </c>
@@ -17594,7 +17465,6 @@
       <c r="D200" s="15" t="s">
         <v>1338</v>
       </c>
-      <c r="E200" s="15"/>
       <c r="F200" s="15" t="s">
         <v>1264</v>
       </c>
@@ -17633,7 +17503,6 @@
       <c r="D201" s="15" t="s">
         <v>1342</v>
       </c>
-      <c r="E201" s="15"/>
       <c r="F201" s="15" t="s">
         <v>1058</v>
       </c>
@@ -17672,7 +17541,6 @@
       <c r="D202" s="15" t="s">
         <v>1346</v>
       </c>
-      <c r="E202" s="15"/>
       <c r="F202" s="15" t="s">
         <v>966</v>
       </c>
@@ -17711,7 +17579,6 @@
       <c r="D203" s="15" t="s">
         <v>1350</v>
       </c>
-      <c r="E203" s="15"/>
       <c r="F203" s="15" t="s">
         <v>1351</v>
       </c>
@@ -17750,7 +17617,6 @@
       <c r="D204" s="15" t="s">
         <v>1355</v>
       </c>
-      <c r="E204" s="15"/>
       <c r="F204" s="15" t="s">
         <v>1002</v>
       </c>
@@ -17789,7 +17655,6 @@
       <c r="D205" s="15" t="s">
         <v>1359</v>
       </c>
-      <c r="E205" s="15"/>
       <c r="F205" s="15" t="s">
         <v>1360</v>
       </c>
@@ -17828,7 +17693,6 @@
       <c r="D206" s="15" t="s">
         <v>1364</v>
       </c>
-      <c r="E206" s="15"/>
       <c r="F206" s="15" t="s">
         <v>1365</v>
       </c>
@@ -17867,7 +17731,6 @@
       <c r="D207" s="15" t="s">
         <v>1369</v>
       </c>
-      <c r="E207" s="15"/>
       <c r="F207" s="15" t="s">
         <v>1116</v>
       </c>
@@ -17906,7 +17769,6 @@
       <c r="D208" s="15" t="s">
         <v>1373</v>
       </c>
-      <c r="E208" s="15"/>
       <c r="F208" s="15" t="s">
         <v>1287</v>
       </c>
@@ -17945,7 +17807,6 @@
       <c r="D209" s="15" t="s">
         <v>1377</v>
       </c>
-      <c r="E209" s="15"/>
       <c r="F209" s="15" t="s">
         <v>1116</v>
       </c>
@@ -17984,7 +17845,6 @@
       <c r="D210" s="15" t="s">
         <v>1381</v>
       </c>
-      <c r="E210" s="15"/>
       <c r="F210" s="15" t="s">
         <v>1382</v>
       </c>
@@ -18023,7 +17883,6 @@
       <c r="D211" s="15" t="s">
         <v>1386</v>
       </c>
-      <c r="E211" s="15"/>
       <c r="F211" s="15" t="s">
         <v>981</v>
       </c>
@@ -18062,7 +17921,6 @@
       <c r="D212" s="15" t="s">
         <v>1389</v>
       </c>
-      <c r="E212" s="15"/>
       <c r="F212" s="15" t="s">
         <v>613</v>
       </c>
@@ -18224,7 +18082,6 @@
       <c r="D216" s="15" t="s">
         <v>1406</v>
       </c>
-      <c r="E216" s="15"/>
       <c r="F216" s="15" t="s">
         <v>201</v>
       </c>
@@ -18263,7 +18120,6 @@
       <c r="D217" s="15" t="s">
         <v>1410</v>
       </c>
-      <c r="E217" s="15"/>
       <c r="F217" s="15" t="s">
         <v>216</v>
       </c>
@@ -18384,7 +18240,6 @@
       <c r="D220" s="15" t="s">
         <v>1422</v>
       </c>
-      <c r="E220" s="15"/>
       <c r="F220" s="15" t="s">
         <v>201</v>
       </c>
@@ -18423,7 +18278,6 @@
       <c r="D221" s="15" t="s">
         <v>1426</v>
       </c>
-      <c r="E221" s="15"/>
       <c r="F221" s="15" t="s">
         <v>201</v>
       </c>
@@ -18462,7 +18316,6 @@
       <c r="D222" s="15" t="s">
         <v>1431</v>
       </c>
-      <c r="E222" s="15"/>
       <c r="F222" s="15" t="s">
         <v>201</v>
       </c>
@@ -18501,7 +18354,6 @@
       <c r="D223" s="15" t="s">
         <v>1435</v>
       </c>
-      <c r="E223" s="15"/>
       <c r="F223" s="15" t="s">
         <v>201</v>
       </c>
@@ -18622,7 +18474,6 @@
       <c r="D226" s="15" t="s">
         <v>1448</v>
       </c>
-      <c r="E226" s="15"/>
       <c r="F226" s="15" t="s">
         <v>240</v>
       </c>
@@ -18661,7 +18512,6 @@
       <c r="D227" s="15" t="s">
         <v>1453</v>
       </c>
-      <c r="E227" s="15"/>
       <c r="F227" s="15" t="s">
         <v>201</v>
       </c>
@@ -18741,7 +18591,6 @@
       <c r="D229" s="15" t="s">
         <v>1461</v>
       </c>
-      <c r="E229" s="15"/>
       <c r="F229" s="15" t="s">
         <v>1462</v>
       </c>
@@ -18780,7 +18629,6 @@
       <c r="D230" s="15" t="s">
         <v>1466</v>
       </c>
-      <c r="E230" s="15"/>
       <c r="F230" s="15" t="s">
         <v>416</v>
       </c>
@@ -18819,7 +18667,6 @@
       <c r="D231" s="15" t="s">
         <v>1470</v>
       </c>
-      <c r="E231" s="15"/>
       <c r="F231" s="15" t="s">
         <v>407</v>
       </c>
@@ -18858,7 +18705,6 @@
       <c r="D232" s="15" t="s">
         <v>1474</v>
       </c>
-      <c r="E232" s="15"/>
       <c r="F232" s="15" t="s">
         <v>1112</v>
       </c>
@@ -18897,7 +18743,6 @@
       <c r="D233" s="15" t="s">
         <v>1478</v>
       </c>
-      <c r="E233" s="15"/>
       <c r="F233" s="15" t="s">
         <v>1112</v>
       </c>
@@ -18936,7 +18781,6 @@
       <c r="D234" s="15" t="s">
         <v>1482</v>
       </c>
-      <c r="E234" s="15"/>
       <c r="F234" s="15" t="s">
         <v>416</v>
       </c>
@@ -18975,7 +18819,6 @@
       <c r="D235" s="15" t="s">
         <v>1486</v>
       </c>
-      <c r="E235" s="15"/>
       <c r="F235" s="15" t="s">
         <v>1079</v>
       </c>
@@ -19014,7 +18857,6 @@
       <c r="D236" s="15" t="s">
         <v>1491</v>
       </c>
-      <c r="E236" s="15"/>
       <c r="F236" s="15" t="s">
         <v>1116</v>
       </c>
@@ -19053,7 +18895,6 @@
       <c r="D237" s="15" t="s">
         <v>1495</v>
       </c>
-      <c r="E237" s="15"/>
       <c r="F237" s="15" t="s">
         <v>1099</v>
       </c>
@@ -19133,7 +18974,6 @@
       <c r="D239" s="15" t="s">
         <v>1504</v>
       </c>
-      <c r="E239" s="15"/>
       <c r="F239" s="15" t="s">
         <v>1116</v>
       </c>
@@ -19172,7 +19012,6 @@
       <c r="D240" s="15" t="s">
         <v>1508</v>
       </c>
-      <c r="E240" s="15"/>
       <c r="F240" s="15" t="s">
         <v>438</v>
       </c>
@@ -19293,7 +19132,6 @@
       <c r="D243" s="15" t="s">
         <v>1520</v>
       </c>
-      <c r="E243" s="15"/>
       <c r="F243" s="15" t="s">
         <v>1099</v>
       </c>
@@ -19332,7 +19170,6 @@
       <c r="D244" s="15" t="s">
         <v>1524</v>
       </c>
-      <c r="E244" s="15"/>
       <c r="F244" s="15" t="s">
         <v>462</v>
       </c>
@@ -19371,7 +19208,6 @@
       <c r="D245" s="15" t="s">
         <v>1528</v>
       </c>
-      <c r="E245" s="15"/>
       <c r="F245" s="15" t="s">
         <v>1099</v>
       </c>
@@ -19410,7 +19246,6 @@
       <c r="D246" s="15" t="s">
         <v>1532</v>
       </c>
-      <c r="E246" s="15"/>
       <c r="F246" s="15" t="s">
         <v>462</v>
       </c>
@@ -19449,7 +19284,6 @@
       <c r="D247" s="15" t="s">
         <v>1536</v>
       </c>
-      <c r="E247" s="15"/>
       <c r="F247" s="15" t="s">
         <v>1099</v>
       </c>
@@ -19488,7 +19322,6 @@
       <c r="D248" s="15" t="s">
         <v>1540</v>
       </c>
-      <c r="E248" s="15"/>
       <c r="F248" s="15" t="s">
         <v>1541</v>
       </c>
@@ -19527,7 +19360,6 @@
       <c r="D249" s="15" t="s">
         <v>1545</v>
       </c>
-      <c r="E249" s="15"/>
       <c r="F249" s="15" t="s">
         <v>416</v>
       </c>
@@ -19607,7 +19439,6 @@
       <c r="D251" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="E251" s="15"/>
       <c r="F251" s="15" t="s">
         <v>1099</v>
       </c>
@@ -19646,7 +19477,6 @@
       <c r="D252" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="E252" s="15"/>
       <c r="F252" s="15" t="s">
         <v>416</v>
       </c>
@@ -19685,7 +19515,6 @@
       <c r="D253" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="E253" s="15"/>
       <c r="F253" s="15" t="s">
         <v>1002</v>
       </c>
@@ -19724,7 +19553,6 @@
       <c r="D254" s="15" t="s">
         <v>1565</v>
       </c>
-      <c r="E254" s="15"/>
       <c r="F254" s="15" t="s">
         <v>1566</v>
       </c>
@@ -19763,7 +19591,6 @@
       <c r="D255" s="15" t="s">
         <v>1570</v>
       </c>
-      <c r="E255" s="15"/>
       <c r="F255" s="15" t="s">
         <v>1566</v>
       </c>
@@ -19802,7 +19629,6 @@
       <c r="D256" s="15" t="s">
         <v>1574</v>
       </c>
-      <c r="E256" s="15"/>
       <c r="F256" s="15" t="s">
         <v>981</v>
       </c>
@@ -19841,7 +19667,6 @@
       <c r="D257" s="15" t="s">
         <v>1578</v>
       </c>
-      <c r="E257" s="15"/>
       <c r="F257" s="15" t="s">
         <v>1002</v>
       </c>
@@ -19921,7 +19746,6 @@
       <c r="D259" s="15" t="s">
         <v>1586</v>
       </c>
-      <c r="E259" s="15"/>
       <c r="F259" s="15" t="s">
         <v>1142</v>
       </c>
@@ -19960,7 +19784,6 @@
       <c r="D260" s="15" t="s">
         <v>1590</v>
       </c>
-      <c r="E260" s="15"/>
       <c r="F260" s="15" t="s">
         <v>1142</v>
       </c>
@@ -19999,7 +19822,6 @@
       <c r="D261" s="15" t="s">
         <v>1594</v>
       </c>
-      <c r="E261" s="15"/>
       <c r="F261" s="15" t="s">
         <v>1566</v>
       </c>
@@ -20038,7 +19860,6 @@
       <c r="D262" s="15" t="s">
         <v>1598</v>
       </c>
-      <c r="E262" s="15"/>
       <c r="F262" s="15" t="s">
         <v>1566</v>
       </c>
@@ -20077,7 +19898,6 @@
       <c r="D263" s="15" t="s">
         <v>1602</v>
       </c>
-      <c r="E263" s="15"/>
       <c r="F263" s="15" t="s">
         <v>1099</v>
       </c>
@@ -20116,7 +19936,6 @@
       <c r="D264" s="15" t="s">
         <v>1606</v>
       </c>
-      <c r="E264" s="15"/>
       <c r="F264" s="15" t="s">
         <v>738</v>
       </c>
@@ -20155,7 +19974,6 @@
       <c r="D265" s="15" t="s">
         <v>1610</v>
       </c>
-      <c r="E265" s="15"/>
       <c r="F265" s="15" t="s">
         <v>524</v>
       </c>
@@ -20194,7 +20012,6 @@
       <c r="D266" s="15" t="s">
         <v>1614</v>
       </c>
-      <c r="E266" s="15"/>
       <c r="F266" s="15" t="s">
         <v>1099</v>
       </c>
@@ -20233,7 +20050,6 @@
       <c r="D267" s="15" t="s">
         <v>1618</v>
       </c>
-      <c r="E267" s="15"/>
       <c r="F267" s="15" t="s">
         <v>269</v>
       </c>
@@ -20354,7 +20170,6 @@
       <c r="D270" s="15" t="s">
         <v>1631</v>
       </c>
-      <c r="E270" s="15"/>
       <c r="F270" s="15" t="s">
         <v>462</v>
       </c>
@@ -20393,7 +20208,6 @@
       <c r="D271" s="15" t="s">
         <v>1635</v>
       </c>
-      <c r="E271" s="15"/>
       <c r="F271" s="15" t="s">
         <v>989</v>
       </c>
@@ -20432,7 +20246,6 @@
       <c r="D272" s="15" t="s">
         <v>1639</v>
       </c>
-      <c r="E272" s="15"/>
       <c r="F272" s="15" t="s">
         <v>269</v>
       </c>
@@ -20471,7 +20284,6 @@
       <c r="D273" s="15" t="s">
         <v>1643</v>
       </c>
-      <c r="E273" s="15"/>
       <c r="F273" s="15" t="s">
         <v>1002</v>
       </c>
@@ -20510,7 +20322,6 @@
       <c r="D274" s="15" t="s">
         <v>1647</v>
       </c>
-      <c r="E274" s="15"/>
       <c r="F274" s="15" t="s">
         <v>1156</v>
       </c>
@@ -20549,7 +20360,6 @@
       <c r="D275" s="15" t="s">
         <v>1651</v>
       </c>
-      <c r="E275" s="15"/>
       <c r="F275" s="15" t="s">
         <v>462</v>
       </c>
@@ -20588,7 +20398,6 @@
       <c r="D276" s="15" t="s">
         <v>1655</v>
       </c>
-      <c r="E276" s="15"/>
       <c r="F276" s="15" t="s">
         <v>1156</v>
       </c>
@@ -20627,7 +20436,6 @@
       <c r="D277" s="15" t="s">
         <v>1659</v>
       </c>
-      <c r="E277" s="15"/>
       <c r="F277" s="15" t="s">
         <v>1116</v>
       </c>
@@ -20666,7 +20474,6 @@
       <c r="D278" s="15" t="s">
         <v>1663</v>
       </c>
-      <c r="E278" s="15"/>
       <c r="F278" s="15" t="s">
         <v>462</v>
       </c>
@@ -20705,7 +20512,6 @@
       <c r="D279" s="15" t="s">
         <v>1667</v>
       </c>
-      <c r="E279" s="15"/>
       <c r="F279" s="15" t="s">
         <v>989</v>
       </c>
@@ -20744,7 +20550,6 @@
       <c r="D280" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="E280" s="15"/>
       <c r="F280" s="15" t="s">
         <v>1222</v>
       </c>
@@ -20783,7 +20588,6 @@
       <c r="D281" s="15" t="s">
         <v>1675</v>
       </c>
-      <c r="E281" s="15"/>
       <c r="F281" s="15" t="s">
         <v>462</v>
       </c>
@@ -20822,7 +20626,6 @@
       <c r="D282" s="15" t="s">
         <v>1679</v>
       </c>
-      <c r="E282" s="15"/>
       <c r="F282" s="15" t="s">
         <v>1002</v>
       </c>
@@ -20902,7 +20705,6 @@
       <c r="D284" s="15" t="s">
         <v>1687</v>
       </c>
-      <c r="E284" s="15"/>
       <c r="F284" s="15" t="s">
         <v>1222</v>
       </c>
@@ -20941,7 +20743,6 @@
       <c r="D285" s="15" t="s">
         <v>1691</v>
       </c>
-      <c r="E285" s="15"/>
       <c r="F285" s="15" t="s">
         <v>416</v>
       </c>
@@ -20980,7 +20781,6 @@
       <c r="D286" s="15" t="s">
         <v>1695</v>
       </c>
-      <c r="E286" s="15"/>
       <c r="F286" s="15" t="s">
         <v>1696</v>
       </c>
@@ -21019,7 +20819,6 @@
       <c r="D287" s="15" t="s">
         <v>1700</v>
       </c>
-      <c r="E287" s="15"/>
       <c r="F287" s="15" t="s">
         <v>416</v>
       </c>
@@ -21058,7 +20857,6 @@
       <c r="D288" s="15" t="s">
         <v>1705</v>
       </c>
-      <c r="E288" s="15"/>
       <c r="F288" s="15" t="s">
         <v>462</v>
       </c>
@@ -21097,7 +20895,6 @@
       <c r="D289" s="15" t="s">
         <v>1709</v>
       </c>
-      <c r="E289" s="15"/>
       <c r="F289" s="15" t="s">
         <v>1116</v>
       </c>
@@ -21136,7 +20933,6 @@
       <c r="D290" s="15" t="s">
         <v>1713</v>
       </c>
-      <c r="E290" s="15"/>
       <c r="F290" s="15" t="s">
         <v>1021</v>
       </c>
@@ -21175,7 +20971,6 @@
       <c r="D291" s="15" t="s">
         <v>1717</v>
       </c>
-      <c r="E291" s="15"/>
       <c r="F291" s="15" t="s">
         <v>1116</v>
       </c>
@@ -21214,7 +21009,6 @@
       <c r="D292" s="15" t="s">
         <v>1721</v>
       </c>
-      <c r="E292" s="15"/>
       <c r="F292" s="15" t="s">
         <v>1722</v>
       </c>
@@ -21253,7 +21047,6 @@
       <c r="D293" s="15" t="s">
         <v>1726</v>
       </c>
-      <c r="E293" s="15"/>
       <c r="F293" s="15" t="s">
         <v>1002</v>
       </c>
@@ -21292,7 +21085,6 @@
       <c r="D294" s="15" t="s">
         <v>1730</v>
       </c>
-      <c r="E294" s="15"/>
       <c r="F294" s="15" t="s">
         <v>1160</v>
       </c>
@@ -21331,7 +21123,6 @@
       <c r="D295" s="15" t="s">
         <v>1734</v>
       </c>
-      <c r="E295" s="15"/>
       <c r="F295" s="15" t="s">
         <v>1002</v>
       </c>
@@ -21370,7 +21161,6 @@
       <c r="D296" s="15" t="s">
         <v>1738</v>
       </c>
-      <c r="E296" s="15"/>
       <c r="F296" s="15" t="s">
         <v>1739</v>
       </c>
@@ -21409,7 +21199,6 @@
       <c r="D297" s="15" t="s">
         <v>1743</v>
       </c>
-      <c r="E297" s="15"/>
       <c r="F297" s="15" t="s">
         <v>101</v>
       </c>
@@ -21530,7 +21319,6 @@
       <c r="D300" s="15" t="s">
         <v>1755</v>
       </c>
-      <c r="E300" s="15"/>
       <c r="F300" s="15" t="s">
         <v>1142</v>
       </c>
@@ -21610,7 +21398,6 @@
       <c r="D302" s="15" t="s">
         <v>1763</v>
       </c>
-      <c r="E302" s="15"/>
       <c r="F302" s="15" t="s">
         <v>669</v>
       </c>
@@ -21649,7 +21436,6 @@
       <c r="D303" s="15" t="s">
         <v>1767</v>
       </c>
-      <c r="E303" s="15"/>
       <c r="F303" s="15" t="s">
         <v>462</v>
       </c>
@@ -21688,7 +21474,6 @@
       <c r="D304" s="15" t="s">
         <v>1771</v>
       </c>
-      <c r="E304" s="15"/>
       <c r="F304" s="15" t="s">
         <v>421</v>
       </c>
@@ -21768,7 +21553,6 @@
       <c r="D306" s="15" t="s">
         <v>1779</v>
       </c>
-      <c r="E306" s="15"/>
       <c r="F306" s="15" t="s">
         <v>462</v>
       </c>
@@ -21807,7 +21591,6 @@
       <c r="D307" s="15" t="s">
         <v>1783</v>
       </c>
-      <c r="E307" s="15"/>
       <c r="F307" s="15" t="s">
         <v>981</v>
       </c>
@@ -21846,7 +21629,6 @@
       <c r="D308" s="15" t="s">
         <v>1787</v>
       </c>
-      <c r="E308" s="15"/>
       <c r="F308" s="15" t="s">
         <v>1002</v>
       </c>
@@ -21885,7 +21667,6 @@
       <c r="D309" s="15" t="s">
         <v>1791</v>
       </c>
-      <c r="E309" s="15"/>
       <c r="F309" s="15" t="s">
         <v>448</v>
       </c>
@@ -21924,7 +21705,6 @@
       <c r="D310" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E310" s="15"/>
       <c r="F310" s="15" t="s">
         <v>196</v>
       </c>
@@ -21963,7 +21743,6 @@
       <c r="D311" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E311" s="15"/>
       <c r="F311" s="15" t="s">
         <v>201</v>
       </c>
@@ -22002,7 +21781,6 @@
       <c r="D312" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E312" s="15"/>
       <c r="F312" s="15" t="s">
         <v>206</v>
       </c>
@@ -22123,7 +21901,6 @@
       <c r="D315" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E315" s="15"/>
       <c r="F315" s="15" t="s">
         <v>221</v>
       </c>
@@ -22203,7 +21980,6 @@
       <c r="D317" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E317" s="15"/>
       <c r="F317" s="15" t="s">
         <v>196</v>
       </c>
@@ -22324,7 +22100,6 @@
       <c r="D320" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E320" s="15"/>
       <c r="F320" s="15" t="s">
         <v>245</v>
       </c>
@@ -22363,7 +22138,6 @@
       <c r="D321" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E321" s="15"/>
       <c r="F321" s="15" t="s">
         <v>250</v>
       </c>
@@ -22402,7 +22176,6 @@
       <c r="D322" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E322" s="15"/>
       <c r="F322" s="15" t="s">
         <v>255</v>
       </c>
@@ -22605,7 +22378,6 @@
       <c r="D327" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E327" s="15"/>
       <c r="F327" s="15" t="s">
         <v>279</v>
       </c>
@@ -22644,7 +22416,6 @@
       <c r="D328" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E328" s="15"/>
       <c r="F328" s="15" t="s">
         <v>284</v>
       </c>
@@ -22683,7 +22454,6 @@
       <c r="D329" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E329" s="15"/>
       <c r="F329" s="15" t="s">
         <v>289</v>
       </c>
@@ -22722,7 +22492,6 @@
       <c r="D330" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E330" s="15"/>
       <c r="F330" s="15" t="s">
         <v>221</v>
       </c>
@@ -22761,7 +22530,6 @@
       <c r="D331" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E331" s="15"/>
       <c r="F331" s="15" t="s">
         <v>221</v>
       </c>
@@ -22800,7 +22568,6 @@
       <c r="D332" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E332" s="15"/>
       <c r="F332" s="15" t="s">
         <v>302</v>
       </c>
@@ -22839,7 +22606,6 @@
       <c r="D333" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E333" s="15"/>
       <c r="F333" s="15" t="s">
         <v>221</v>
       </c>
@@ -22878,7 +22644,6 @@
       <c r="D334" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E334" s="15"/>
       <c r="F334" s="15" t="s">
         <v>311</v>
       </c>
@@ -22917,7 +22682,6 @@
       <c r="D335" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E335" s="15"/>
       <c r="F335" s="15" t="s">
         <v>221</v>
       </c>
@@ -23079,7 +22843,6 @@
       <c r="D339" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E339" s="15"/>
       <c r="F339" s="15" t="s">
         <v>332</v>
       </c>
@@ -23118,7 +22881,6 @@
       <c r="D340" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E340" s="15"/>
       <c r="F340" s="15" t="s">
         <v>95</v>
       </c>
@@ -23157,7 +22919,6 @@
       <c r="D341" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E341" s="15"/>
       <c r="F341" s="15" t="s">
         <v>221</v>
       </c>
@@ -23196,7 +22957,6 @@
       <c r="D342" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E342" s="15"/>
       <c r="F342" s="15" t="s">
         <v>221</v>
       </c>
@@ -23358,7 +23118,6 @@
       <c r="D346" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="E346" s="15"/>
       <c r="F346" s="15" t="s">
         <v>221</v>
       </c>
@@ -23397,7 +23156,6 @@
       <c r="D347" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="E347" s="15"/>
       <c r="F347" s="15" t="s">
         <v>332</v>
       </c>
@@ -23436,7 +23194,6 @@
       <c r="D348" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E348" s="15"/>
       <c r="F348" s="15" t="s">
         <v>371</v>
       </c>
@@ -23475,7 +23232,6 @@
       <c r="D349" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E349" s="15"/>
       <c r="F349" s="15" t="s">
         <v>221</v>
       </c>
@@ -23555,7 +23311,6 @@
       <c r="D351" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E351" s="15"/>
       <c r="F351" s="15" t="s">
         <v>168</v>
       </c>
@@ -23594,7 +23349,6 @@
       <c r="D352" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="E352" s="15"/>
       <c r="F352" s="15" t="s">
         <v>388</v>
       </c>
@@ -23633,7 +23387,6 @@
       <c r="D353" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="E353" s="15"/>
       <c r="F353" s="15" t="s">
         <v>269</v>
       </c>
@@ -23672,7 +23425,6 @@
       <c r="D354" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E354" s="15"/>
       <c r="F354" s="15" t="s">
         <v>221</v>
       </c>
@@ -23752,7 +23504,6 @@
       <c r="D356" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="E356" s="15"/>
       <c r="F356" s="15" t="s">
         <v>407</v>
       </c>
@@ -23791,7 +23542,6 @@
       <c r="D357" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="E357" s="15"/>
       <c r="F357" s="15" t="s">
         <v>407</v>
       </c>
@@ -23830,7 +23580,6 @@
       <c r="D358" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="E358" s="15"/>
       <c r="F358" s="15" t="s">
         <v>416</v>
       </c>
@@ -23910,7 +23659,6 @@
       <c r="D360" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E360" s="15"/>
       <c r="F360" s="15" t="s">
         <v>371</v>
       </c>
@@ -23949,7 +23697,6 @@
       <c r="D361" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="E361" s="15"/>
       <c r="F361" s="15" t="s">
         <v>269</v>
       </c>
@@ -24152,7 +23899,6 @@
       <c r="D366" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="E366" s="15"/>
       <c r="F366" s="15" t="s">
         <v>453</v>
       </c>
@@ -24232,7 +23978,6 @@
       <c r="D368" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E368" s="15"/>
       <c r="F368" s="15" t="s">
         <v>462</v>
       </c>
@@ -24312,7 +24057,6 @@
       <c r="D370" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="E370" s="15"/>
       <c r="F370" s="15" t="s">
         <v>416</v>
       </c>
@@ -24351,7 +24095,6 @@
       <c r="D371" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="E371" s="15"/>
       <c r="F371" s="15" t="s">
         <v>475</v>
       </c>
@@ -24472,7 +24215,6 @@
       <c r="D374" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E374" s="15"/>
       <c r="F374" s="15" t="s">
         <v>250</v>
       </c>
@@ -24511,7 +24253,6 @@
       <c r="D375" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="E375" s="15"/>
       <c r="F375" s="15" t="s">
         <v>371</v>
       </c>
@@ -24550,7 +24291,6 @@
       <c r="D376" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="E376" s="15"/>
       <c r="F376" s="15" t="s">
         <v>311</v>
       </c>
@@ -24630,7 +24370,6 @@
       <c r="D378" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="E378" s="15"/>
       <c r="F378" s="15" t="s">
         <v>240</v>
       </c>
@@ -24710,7 +24449,6 @@
       <c r="D380" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E380" s="15"/>
       <c r="F380" s="15" t="s">
         <v>462</v>
       </c>
@@ -24749,7 +24487,6 @@
       <c r="D381" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="E381" s="15"/>
       <c r="F381" s="15" t="s">
         <v>206</v>
       </c>
@@ -24829,7 +24566,6 @@
       <c r="D383" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="E383" s="15"/>
       <c r="F383" s="15" t="s">
         <v>524</v>
       </c>
@@ -24868,7 +24604,6 @@
       <c r="D384" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="E384" s="15"/>
       <c r="F384" s="15" t="s">
         <v>311</v>
       </c>
@@ -24989,7 +24724,6 @@
       <c r="D387" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="E387" s="15"/>
       <c r="F387" s="15" t="s">
         <v>358</v>
       </c>
@@ -25028,7 +24762,6 @@
       <c r="D388" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="E388" s="15"/>
       <c r="F388" s="15" t="s">
         <v>371</v>
       </c>
@@ -25108,7 +24841,6 @@
       <c r="D390" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="E390" s="15"/>
       <c r="F390" s="15" t="s">
         <v>524</v>
       </c>
@@ -25229,7 +24961,6 @@
       <c r="D393" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="E393" s="15"/>
       <c r="F393" s="15" t="s">
         <v>216</v>
       </c>
@@ -25268,7 +24999,6 @@
       <c r="D394" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="E394" s="15"/>
       <c r="F394" s="15" t="s">
         <v>206</v>
       </c>
@@ -25307,7 +25037,6 @@
       <c r="D395" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="E395" s="15"/>
       <c r="F395" s="15" t="s">
         <v>524</v>
       </c>
@@ -25469,7 +25198,6 @@
       <c r="D399" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="E399" s="15"/>
       <c r="F399" s="15" t="s">
         <v>250</v>
       </c>
@@ -25549,7 +25277,6 @@
       <c r="D401" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="E401" s="15"/>
       <c r="F401" s="15" t="s">
         <v>269</v>
       </c>
@@ -25588,7 +25315,6 @@
       <c r="D402" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="E402" s="15"/>
       <c r="F402" s="15" t="s">
         <v>269</v>
       </c>
@@ -25627,7 +25353,6 @@
       <c r="D403" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="E403" s="15"/>
       <c r="F403" s="15" t="s">
         <v>560</v>
       </c>
@@ -25666,7 +25391,6 @@
       <c r="D404" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="E404" s="15"/>
       <c r="F404" s="15" t="s">
         <v>613</v>
       </c>
@@ -25705,7 +25429,6 @@
       <c r="D405" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="E405" s="15"/>
       <c r="F405" s="15" t="s">
         <v>216</v>
       </c>
@@ -25785,7 +25508,6 @@
       <c r="D407" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="E407" s="15"/>
       <c r="F407" s="15" t="s">
         <v>421</v>
       </c>
@@ -25865,7 +25587,6 @@
       <c r="D409" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="E409" s="15"/>
       <c r="F409" s="15" t="s">
         <v>245</v>
       </c>
@@ -25904,7 +25625,6 @@
       <c r="D410" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="E410" s="15"/>
       <c r="F410" s="15" t="s">
         <v>245</v>
       </c>
@@ -26107,7 +25827,6 @@
       <c r="D415" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="E415" s="15"/>
       <c r="F415" s="15" t="s">
         <v>421</v>
       </c>
@@ -26146,7 +25865,6 @@
       <c r="D416" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="E416" s="15"/>
       <c r="F416" s="15" t="s">
         <v>421</v>
       </c>
